--- a/englimiter.xlsx
+++ b/englimiter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\mi_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93307CD-9F1A-4E31-AEB4-942337D41419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29882D91-3A87-425C-A258-F20841D7313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$D$41</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -68,7 +68,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +79,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
         <bgColor rgb="FFF5F5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF5F5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -109,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -129,8 +141,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,8 +443,8 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B55"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +476,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="1">
         <v>892356</v>
       </c>
       <c r="C2" s="4">
@@ -468,7 +493,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1">
         <v>892358</v>
       </c>
       <c r="C3" s="4">
@@ -485,7 +510,7 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="1">
         <v>896868</v>
       </c>
       <c r="C4" s="4">
@@ -502,7 +527,7 @@
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="1">
         <v>896691</v>
       </c>
       <c r="C5" s="4">
@@ -519,11 +544,12 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="1">
         <v>877375</v>
       </c>
-      <c r="C6" s="4">
-        <v>67491.87</v>
+      <c r="C6" s="12">
+        <f>33598+1015</f>
+        <v>34613</v>
       </c>
       <c r="D6" s="5">
         <v>35717</v>
@@ -536,7 +562,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="1">
         <v>874418</v>
       </c>
       <c r="C7" s="4">
@@ -553,7 +579,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="1">
         <v>874414</v>
       </c>
       <c r="C8" s="4">
@@ -570,7 +596,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="1">
         <v>874480</v>
       </c>
       <c r="C9" s="4">
@@ -587,7 +613,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="1">
         <v>891556</v>
       </c>
       <c r="C10" s="4">
@@ -604,7 +630,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="1">
         <v>894539</v>
       </c>
       <c r="C11" s="4">
@@ -621,7 +647,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="1">
         <v>890412</v>
       </c>
       <c r="C12" s="4">
@@ -638,7 +664,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="1">
         <v>890586</v>
       </c>
       <c r="C13" s="4">
@@ -655,7 +681,7 @@
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="1">
         <v>892141</v>
       </c>
       <c r="C14" s="4">
@@ -672,7 +698,7 @@
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="1">
         <v>892804</v>
       </c>
       <c r="C15" s="4">
@@ -689,7 +715,7 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="1">
         <v>892803</v>
       </c>
       <c r="C16" s="4">
@@ -706,7 +732,7 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="1">
         <v>892864</v>
       </c>
       <c r="C17" s="4">
@@ -723,7 +749,7 @@
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="1">
         <v>892865</v>
       </c>
       <c r="C18" s="4">
@@ -740,7 +766,7 @@
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="1">
         <v>874432</v>
       </c>
       <c r="C19" s="4">
@@ -757,7 +783,7 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="1">
         <v>894571</v>
       </c>
       <c r="C20" s="4">
@@ -770,20 +796,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="7">
         <v>888321</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="8">
         <v>44976.83</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="9">
         <v>22804</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="10">
         <v>2</v>
       </c>
     </row>
@@ -791,7 +817,7 @@
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="1">
         <v>892951</v>
       </c>
       <c r="C22" s="4">
@@ -808,7 +834,7 @@
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="1">
         <v>892954</v>
       </c>
       <c r="C23" s="4">
@@ -825,7 +851,7 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="1">
         <v>892870</v>
       </c>
       <c r="C24" s="4">
@@ -842,7 +868,7 @@
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="1">
         <v>892868</v>
       </c>
       <c r="C25" s="4">
@@ -859,7 +885,7 @@
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="1">
         <v>892672</v>
       </c>
       <c r="C26" s="4">
@@ -876,7 +902,7 @@
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="1">
         <v>892673</v>
       </c>
       <c r="C27" s="4">
@@ -893,7 +919,7 @@
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="1">
         <v>892340</v>
       </c>
       <c r="C28" s="4">
@@ -910,7 +936,7 @@
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="1">
         <v>874656</v>
       </c>
       <c r="C29" s="4">
@@ -927,7 +953,7 @@
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="1">
         <v>874497</v>
       </c>
       <c r="C30" s="4">
@@ -944,7 +970,7 @@
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="1">
         <v>892906</v>
       </c>
       <c r="C31" s="4">
@@ -961,7 +987,7 @@
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="1">
         <v>874113</v>
       </c>
       <c r="C32" s="4">
@@ -978,7 +1004,7 @@
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="1">
         <v>889230</v>
       </c>
       <c r="C33" s="4">
@@ -995,7 +1021,7 @@
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="1">
         <v>892905</v>
       </c>
       <c r="C34" s="4">
@@ -1012,7 +1038,7 @@
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="1">
         <v>894354</v>
       </c>
       <c r="C35" s="4">
@@ -1029,7 +1055,7 @@
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="1">
         <v>894537</v>
       </c>
       <c r="C36" s="4">
@@ -1046,7 +1072,7 @@
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="1">
         <v>875261</v>
       </c>
       <c r="C37" s="4">
@@ -1063,7 +1089,7 @@
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="1">
         <v>874491</v>
       </c>
       <c r="C38" s="4">
@@ -1080,7 +1106,7 @@
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="1">
         <v>804467</v>
       </c>
       <c r="C39" s="4">
@@ -1097,7 +1123,7 @@
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="1">
         <v>804468</v>
       </c>
       <c r="C40" s="4">
@@ -1114,7 +1140,7 @@
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="1">
         <v>896112</v>
       </c>
       <c r="C41" s="4">
@@ -1131,7 +1157,7 @@
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="1">
         <v>894790</v>
       </c>
       <c r="C42" s="4">
@@ -1148,7 +1174,7 @@
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="1">
         <v>802851</v>
       </c>
       <c r="C43" s="4">
@@ -1165,7 +1191,7 @@
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="1">
         <v>802135</v>
       </c>
       <c r="C44" s="4">
@@ -1178,20 +1204,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="7">
         <v>896216</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="8">
         <v>7040.19</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="9">
         <v>4050</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1199,7 +1225,7 @@
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="1">
         <v>802668</v>
       </c>
       <c r="C46" s="4">
@@ -1216,7 +1242,7 @@
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="1">
         <v>802705</v>
       </c>
       <c r="C47" s="4">
@@ -1233,7 +1259,7 @@
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="1">
         <v>805541</v>
       </c>
       <c r="C48" s="4">
@@ -1250,7 +1276,7 @@
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="1">
         <v>804618</v>
       </c>
       <c r="C49" s="4">
@@ -1267,7 +1293,7 @@
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="1">
         <v>804402</v>
       </c>
       <c r="C50" s="4">
@@ -1284,7 +1310,7 @@
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="1">
         <v>804414</v>
       </c>
       <c r="C51" s="4">
@@ -1301,7 +1327,7 @@
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="1">
         <v>804554</v>
       </c>
       <c r="C52" s="4">
@@ -1318,7 +1344,7 @@
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="1">
         <v>804616</v>
       </c>
       <c r="C53" s="4">
@@ -1335,7 +1361,7 @@
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="1">
         <v>802848</v>
       </c>
       <c r="C54" s="4">
@@ -1352,7 +1378,7 @@
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="1">
         <v>854682</v>
       </c>
       <c r="C55" s="4">
@@ -1369,7 +1395,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:D41" numberStoredAsText="1"/>
+    <ignoredError sqref="C2:D5 C7:D41 D6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/englimiter.xlsx
+++ b/englimiter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\mi_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29882D91-3A87-425C-A258-F20841D7313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5166C2-C12F-4647-875E-86D8B678E521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,14 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$D$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="10">
-  <si>
-    <t>CFM56-7B24</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
   <si>
     <t>CFM56-7B24/3</t>
   </si>
@@ -440,11 +437,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:D6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,19 +454,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -477,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>892356</v>
+        <v>896868</v>
       </c>
       <c r="C2" s="4">
-        <v>41393.71</v>
+        <v>16485.98</v>
       </c>
       <c r="D2" s="5">
-        <v>31986</v>
+        <v>10887</v>
       </c>
       <c r="E2" s="6">
         <v>2</v>
@@ -494,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>892358</v>
+        <v>896691</v>
       </c>
       <c r="C3" s="4">
-        <v>41583.730000000003</v>
+        <v>14188.33</v>
       </c>
       <c r="D3" s="5">
-        <v>32180</v>
+        <v>11636</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
@@ -511,13 +508,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>896868</v>
-      </c>
-      <c r="C4" s="4">
-        <v>16485.98</v>
+        <v>877375</v>
+      </c>
+      <c r="C4" s="12">
+        <f>33598+1015</f>
+        <v>34613</v>
       </c>
       <c r="D4" s="5">
-        <v>10887</v>
+        <v>35717</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
@@ -528,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>896691</v>
+        <v>874418</v>
       </c>
       <c r="C5" s="4">
-        <v>14188.33</v>
+        <v>67767.81</v>
       </c>
       <c r="D5" s="5">
-        <v>11636</v>
+        <v>36420</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
@@ -542,17 +540,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>877375</v>
-      </c>
-      <c r="C6" s="12">
-        <f>33598+1015</f>
-        <v>34613</v>
+        <v>874414</v>
+      </c>
+      <c r="C6" s="4">
+        <v>61892.91</v>
       </c>
       <c r="D6" s="5">
-        <v>35717</v>
+        <v>42820</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
@@ -560,16 +557,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>874418</v>
+        <v>874480</v>
       </c>
       <c r="C7" s="4">
-        <v>67767.81</v>
+        <v>68812.600000000006</v>
       </c>
       <c r="D7" s="5">
-        <v>36420</v>
+        <v>53298</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
@@ -577,16 +574,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>874414</v>
+        <v>891556</v>
       </c>
       <c r="C8" s="4">
-        <v>61892.91</v>
+        <v>68590.759999999995</v>
       </c>
       <c r="D8" s="5">
-        <v>42820</v>
+        <v>27531</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
@@ -594,16 +591,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>874480</v>
+        <v>894539</v>
       </c>
       <c r="C9" s="4">
-        <v>68812.600000000006</v>
+        <v>54989.760000000002</v>
       </c>
       <c r="D9" s="5">
-        <v>53298</v>
+        <v>24948</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
@@ -611,16 +608,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>891556</v>
+        <v>890412</v>
       </c>
       <c r="C10" s="4">
-        <v>68590.759999999995</v>
+        <v>60687.87</v>
       </c>
       <c r="D10" s="5">
-        <v>27531</v>
+        <v>22913</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -628,16 +625,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>894539</v>
+        <v>890586</v>
       </c>
       <c r="C11" s="4">
-        <v>54989.760000000002</v>
+        <v>44445.61</v>
       </c>
       <c r="D11" s="5">
-        <v>24948</v>
+        <v>32860</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -645,16 +642,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>890412</v>
+        <v>892141</v>
       </c>
       <c r="C12" s="4">
-        <v>60687.87</v>
+        <v>58579.23</v>
       </c>
       <c r="D12" s="5">
-        <v>22913</v>
+        <v>27163</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -662,16 +659,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>890586</v>
+        <v>892804</v>
       </c>
       <c r="C13" s="4">
-        <v>44445.61</v>
+        <v>61282.78</v>
       </c>
       <c r="D13" s="5">
-        <v>32860</v>
+        <v>25680</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -679,16 +676,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>892141</v>
+        <v>892803</v>
       </c>
       <c r="C14" s="4">
-        <v>58579.23</v>
+        <v>49338.36</v>
       </c>
       <c r="D14" s="5">
-        <v>27163</v>
+        <v>23982</v>
       </c>
       <c r="E14" s="6">
         <v>2</v>
@@ -696,16 +693,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>892804</v>
+        <v>892864</v>
       </c>
       <c r="C15" s="4">
-        <v>61282.78</v>
+        <v>48123.87</v>
       </c>
       <c r="D15" s="5">
-        <v>25680</v>
+        <v>23466</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
@@ -713,16 +710,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>892803</v>
+        <v>892865</v>
       </c>
       <c r="C16" s="4">
-        <v>49338.36</v>
+        <v>47719.24</v>
       </c>
       <c r="D16" s="5">
-        <v>23982</v>
+        <v>27434</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
@@ -730,16 +727,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>892864</v>
+        <v>874432</v>
       </c>
       <c r="C17" s="4">
-        <v>48123.87</v>
+        <v>48990.3</v>
       </c>
       <c r="D17" s="5">
-        <v>23466</v>
+        <v>26042</v>
       </c>
       <c r="E17" s="6">
         <v>2</v>
@@ -747,84 +744,84 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>892865</v>
+        <v>894571</v>
       </c>
       <c r="C18" s="4">
-        <v>47719.24</v>
+        <v>47200.5</v>
       </c>
       <c r="D18" s="5">
-        <v>27434</v>
+        <v>24521</v>
       </c>
       <c r="E18" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>874432</v>
-      </c>
-      <c r="C19" s="4">
-        <v>48990.3</v>
-      </c>
-      <c r="D19" s="5">
-        <v>26042</v>
-      </c>
-      <c r="E19" s="6">
+    <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7">
+        <v>888321</v>
+      </c>
+      <c r="C19" s="8">
+        <v>44976.83</v>
+      </c>
+      <c r="D19" s="9">
+        <v>22804</v>
+      </c>
+      <c r="E19" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>894571</v>
+        <v>892951</v>
       </c>
       <c r="C20" s="4">
-        <v>47200.5</v>
+        <v>51296.45</v>
       </c>
       <c r="D20" s="5">
-        <v>24521</v>
+        <v>18629</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>888321</v>
-      </c>
-      <c r="C21" s="8">
-        <v>44976.83</v>
-      </c>
-      <c r="D21" s="9">
-        <v>22804</v>
-      </c>
-      <c r="E21" s="10">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>892954</v>
+      </c>
+      <c r="C21" s="4">
+        <v>50947.31</v>
+      </c>
+      <c r="D21" s="5">
+        <v>18512</v>
+      </c>
+      <c r="E21" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>892951</v>
+        <v>892870</v>
       </c>
       <c r="C22" s="4">
-        <v>51296.45</v>
+        <v>48365.17</v>
       </c>
       <c r="D22" s="5">
-        <v>18629</v>
+        <v>25390</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
@@ -832,16 +829,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>892954</v>
+        <v>892868</v>
       </c>
       <c r="C23" s="4">
-        <v>50947.31</v>
+        <v>46939.360000000001</v>
       </c>
       <c r="D23" s="5">
-        <v>18512</v>
+        <v>24779</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -849,16 +846,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
-        <v>892870</v>
+        <v>892672</v>
       </c>
       <c r="C24" s="4">
-        <v>48365.17</v>
+        <v>49485.71</v>
       </c>
       <c r="D24" s="5">
-        <v>25390</v>
+        <v>21893</v>
       </c>
       <c r="E24" s="6">
         <v>2</v>
@@ -866,16 +863,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
-        <v>892868</v>
+        <v>892673</v>
       </c>
       <c r="C25" s="4">
-        <v>46939.360000000001</v>
+        <v>48932.33</v>
       </c>
       <c r="D25" s="5">
-        <v>24779</v>
+        <v>22158</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
@@ -883,16 +880,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>892672</v>
+        <v>892340</v>
       </c>
       <c r="C26" s="4">
-        <v>49485.71</v>
+        <v>47424.19</v>
       </c>
       <c r="D26" s="5">
-        <v>21893</v>
+        <v>18909</v>
       </c>
       <c r="E26" s="6">
         <v>2</v>
@@ -900,16 +897,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1">
-        <v>892673</v>
+        <v>874656</v>
       </c>
       <c r="C27" s="4">
-        <v>48932.33</v>
+        <v>46730.33</v>
       </c>
       <c r="D27" s="5">
-        <v>22158</v>
+        <v>25747</v>
       </c>
       <c r="E27" s="6">
         <v>2</v>
@@ -917,16 +914,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1">
-        <v>892340</v>
+        <v>874497</v>
       </c>
       <c r="C28" s="4">
-        <v>47424.19</v>
+        <v>26129</v>
       </c>
       <c r="D28" s="5">
-        <v>18909</v>
+        <v>21372</v>
       </c>
       <c r="E28" s="6">
         <v>2</v>
@@ -934,16 +931,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>874656</v>
+        <v>892906</v>
       </c>
       <c r="C29" s="4">
-        <v>46730.33</v>
+        <v>25347</v>
       </c>
       <c r="D29" s="5">
-        <v>25747</v>
+        <v>20512</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
@@ -951,16 +948,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1">
-        <v>874497</v>
+        <v>874113</v>
       </c>
       <c r="C30" s="4">
-        <v>26129</v>
+        <v>33588.76</v>
       </c>
       <c r="D30" s="5">
-        <v>21372</v>
+        <v>21467</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
@@ -968,16 +965,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1">
-        <v>892906</v>
+        <v>889230</v>
       </c>
       <c r="C31" s="4">
-        <v>25347</v>
+        <v>38823.5</v>
       </c>
       <c r="D31" s="5">
-        <v>20512</v>
+        <v>24391</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
@@ -985,16 +982,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>874113</v>
+        <v>892905</v>
       </c>
       <c r="C32" s="4">
-        <v>33588.76</v>
+        <v>39099.5</v>
       </c>
       <c r="D32" s="5">
-        <v>21467</v>
+        <v>24911</v>
       </c>
       <c r="E32" s="6">
         <v>2</v>
@@ -1002,16 +999,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1">
-        <v>889230</v>
+        <v>894354</v>
       </c>
       <c r="C33" s="4">
-        <v>38823.5</v>
+        <v>35097.379999999997</v>
       </c>
       <c r="D33" s="5">
-        <v>24391</v>
+        <v>22684</v>
       </c>
       <c r="E33" s="6">
         <v>2</v>
@@ -1019,16 +1016,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1">
-        <v>892905</v>
+        <v>894537</v>
       </c>
       <c r="C34" s="4">
-        <v>39099.5</v>
+        <v>32294.55</v>
       </c>
       <c r="D34" s="5">
-        <v>24911</v>
+        <v>21164</v>
       </c>
       <c r="E34" s="6">
         <v>2</v>
@@ -1036,16 +1033,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
-        <v>894354</v>
+        <v>875261</v>
       </c>
       <c r="C35" s="4">
-        <v>35097.379999999997</v>
+        <v>30885.759999999998</v>
       </c>
       <c r="D35" s="5">
-        <v>22684</v>
+        <v>20140</v>
       </c>
       <c r="E35" s="6">
         <v>2</v>
@@ -1053,16 +1050,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1">
-        <v>894537</v>
+        <v>874491</v>
       </c>
       <c r="C36" s="4">
-        <v>32294.55</v>
+        <v>33497.599999999999</v>
       </c>
       <c r="D36" s="5">
-        <v>21164</v>
+        <v>21859</v>
       </c>
       <c r="E36" s="6">
         <v>2</v>
@@ -1073,13 +1070,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="1">
-        <v>875261</v>
+        <v>804467</v>
       </c>
       <c r="C37" s="4">
-        <v>30885.759999999998</v>
+        <v>36104.400000000001</v>
       </c>
       <c r="D37" s="5">
-        <v>20140</v>
+        <v>19411</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
@@ -1090,13 +1087,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="1">
-        <v>874491</v>
+        <v>804468</v>
       </c>
       <c r="C38" s="4">
-        <v>33497.599999999999</v>
+        <v>50051.56</v>
       </c>
       <c r="D38" s="5">
-        <v>21859</v>
+        <v>22514</v>
       </c>
       <c r="E38" s="6">
         <v>2</v>
@@ -1104,16 +1101,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1">
-        <v>804467</v>
+        <v>896112</v>
       </c>
       <c r="C39" s="4">
-        <v>36104.400000000001</v>
+        <v>7040.19</v>
       </c>
       <c r="D39" s="5">
-        <v>19411</v>
+        <v>4050</v>
       </c>
       <c r="E39" s="6">
         <v>2</v>
@@ -1121,16 +1118,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1">
-        <v>804468</v>
+        <v>894790</v>
       </c>
       <c r="C40" s="4">
-        <v>50051.56</v>
+        <v>7040.19</v>
       </c>
       <c r="D40" s="5">
-        <v>22514</v>
+        <v>4050</v>
       </c>
       <c r="E40" s="6">
         <v>2</v>
@@ -1138,10 +1135,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1">
-        <v>896112</v>
+        <v>802851</v>
       </c>
       <c r="C41" s="4">
         <v>7040.19</v>
@@ -1155,44 +1152,44 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1">
-        <v>894790</v>
-      </c>
-      <c r="C42" s="4">
+        <v>802135</v>
+      </c>
+      <c r="C42" s="5">
+        <v>33991</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4050</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="7">
+        <v>896216</v>
+      </c>
+      <c r="C43" s="8">
         <v>7040.19</v>
       </c>
-      <c r="D42" s="5">
-        <v>4050</v>
-      </c>
-      <c r="E42" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="1">
-        <v>802851</v>
-      </c>
-      <c r="C43" s="4">
-        <v>7040.19</v>
-      </c>
-      <c r="D43" s="5">
-        <v>4050</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="D43" s="9">
+        <v>4050</v>
+      </c>
+      <c r="E43" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1">
-        <v>802135</v>
+        <v>802668</v>
       </c>
       <c r="C44" s="4">
         <v>7040.19</v>
@@ -1204,29 +1201,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="7">
-        <v>896216</v>
-      </c>
-      <c r="C45" s="8">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>802705</v>
+      </c>
+      <c r="C45" s="4">
         <v>7040.19</v>
       </c>
-      <c r="D45" s="9">
-        <v>4050</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="D45" s="5">
+        <v>4050</v>
+      </c>
+      <c r="E45" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1">
-        <v>802668</v>
+        <v>805541</v>
       </c>
       <c r="C46" s="4">
         <v>7040.19</v>
@@ -1240,10 +1237,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1">
-        <v>802705</v>
+        <v>804618</v>
       </c>
       <c r="C47" s="4">
         <v>7040.19</v>
@@ -1257,10 +1254,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1">
-        <v>805541</v>
+        <v>804402</v>
       </c>
       <c r="C48" s="4">
         <v>7040.19</v>
@@ -1274,10 +1271,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1">
-        <v>804618</v>
+        <v>804414</v>
       </c>
       <c r="C49" s="4">
         <v>7040.19</v>
@@ -1291,10 +1288,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
-        <v>804402</v>
+        <v>804554</v>
       </c>
       <c r="C50" s="4">
         <v>7040.19</v>
@@ -1308,10 +1305,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1">
-        <v>804414</v>
+        <v>804616</v>
       </c>
       <c r="C51" s="4">
         <v>7040.19</v>
@@ -1325,10 +1322,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1">
-        <v>804554</v>
+        <v>802848</v>
       </c>
       <c r="C52" s="4">
         <v>7040.19</v>
@@ -1345,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="1">
-        <v>804616</v>
+        <v>854682</v>
       </c>
       <c r="C53" s="4">
         <v>7040.19</v>
@@ -1354,40 +1351,6 @@
         <v>4050</v>
       </c>
       <c r="E53" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="1">
-        <v>802848</v>
-      </c>
-      <c r="C54" s="4">
-        <v>7040.19</v>
-      </c>
-      <c r="D54" s="5">
-        <v>4050</v>
-      </c>
-      <c r="E54" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="1">
-        <v>854682</v>
-      </c>
-      <c r="C55" s="4">
-        <v>7040.19</v>
-      </c>
-      <c r="D55" s="5">
-        <v>4050</v>
-      </c>
-      <c r="E55" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1395,7 +1358,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:D5 C7:D41 D6" numberStoredAsText="1"/>
+    <ignoredError sqref="C2:D3 C5:D39 D4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>